--- a/myapp/files/9_MethodComparePercent/Scenario 352.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 352.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2744</v>
+        <v>8621</v>
       </c>
       <c r="F2" t="n">
-        <v>2.72433033498143</v>
+        <v>1.49310859632897</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.69491525423729</v>
+        <v>1.45985401459854</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2333</v>
+        <v>9303</v>
       </c>
       <c r="F3" t="n">
-        <v>2.31627648378706</v>
+        <v>1.61122715133377</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.38983050847458</v>
+        <v>2.91970802919708</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>2633</v>
+        <v>20253</v>
       </c>
       <c r="F4" t="n">
-        <v>2.61412601020631</v>
+        <v>3.50770541717326</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>5.08474576271186</v>
+        <v>3.28467153284672</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>2113</v>
+        <v>18665</v>
       </c>
       <c r="F5" t="n">
-        <v>2.09785349774627</v>
+        <v>3.23267277003599</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.38983050847458</v>
+        <v>3.28467153284672</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>667</v>
+        <v>9104</v>
       </c>
       <c r="F6" t="n">
-        <v>0.662218780405473</v>
+        <v>1.57676147326052</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.69491525423729</v>
+        <v>1.82481751824818</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>760</v>
+        <v>8544</v>
       </c>
       <c r="F7" t="n">
-        <v>0.754552133595441</v>
+        <v>1.47977263044133</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.69491525423729</v>
+        <v>1.45985401459854</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2950</v>
+        <v>26233</v>
       </c>
       <c r="F8" t="n">
-        <v>2.92885367645599</v>
+        <v>4.54340770299245</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,16 +821,16 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>3.38983050847458</v>
+        <v>4.74452554744526</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>8.33333333333333</v>
+        <v>9.72222222222222</v>
       </c>
     </row>
     <row r="9">
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>666</v>
+        <v>32636</v>
       </c>
       <c r="F9" t="n">
-        <v>0.661225948650742</v>
+        <v>5.65237120401257</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -859,16 +859,16 @@
         <v>5.55555555555556</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>3.38983050847458</v>
+        <v>6.56934306569343</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>6.94444444444444</v>
+        <v>5.55555555555556</v>
       </c>
     </row>
     <row r="10">
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>2106</v>
+        <v>26608</v>
       </c>
       <c r="F10" t="n">
-        <v>2.09090367546316</v>
+        <v>4.60835558880887</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,10 +897,10 @@
         <v>5.55555555555556</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
-        <v>1.69491525423729</v>
+        <v>5.10948905109489</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1404</v>
+        <v>16003</v>
       </c>
       <c r="F11" t="n">
-        <v>1.3939357836421</v>
+        <v>2.77162937792049</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>1.69491525423729</v>
+        <v>2.55474452554745</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>5983</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.03622186890572</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.09489051094891</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6176</v>
+        <v>30842</v>
       </c>
       <c r="F13" t="n">
-        <v>6.13172891721769</v>
+        <v>5.34166051826681</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>4.16666666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>5.08474576271186</v>
+        <v>6.93430656934307</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>24514</v>
+        <v>77642</v>
       </c>
       <c r="F14" t="n">
-        <v>24.3382776354719</v>
+        <v>13.4471566681561</v>
       </c>
       <c r="G14" t="n">
         <v>9</v>
@@ -1049,10 +1049,10 @@
         <v>12.5</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J14" t="n">
-        <v>18.6440677966102</v>
+        <v>12.4087591240876</v>
       </c>
       <c r="K14" t="n">
         <v>13</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>19117</v>
+        <v>59216</v>
       </c>
       <c r="F15" t="n">
-        <v>18.9799646551895</v>
+        <v>10.2558773506805</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -1087,10 +1087,10 @@
         <v>13.8888888888889</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>20.3389830508475</v>
+        <v>10.2189781021898</v>
       </c>
       <c r="K15" t="n">
         <v>8</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>12376</v>
+        <v>31492</v>
       </c>
       <c r="F16" t="n">
-        <v>12.2872857965489</v>
+        <v>5.45423685368194</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>10.1694915254237</v>
+        <v>4.37956204379562</v>
       </c>
       <c r="K16" t="n">
         <v>7</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3159</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.54712099011753</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.364963503649635</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>1136</v>
+        <v>22338</v>
       </c>
       <c r="F18" t="n">
-        <v>1.12785687337424</v>
+        <v>3.86881566231256</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1201,10 +1201,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J18" t="n">
-        <v>3.38983050847458</v>
+        <v>5.47445255474453</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>8628</v>
+        <v>53553</v>
       </c>
       <c r="F19" t="n">
-        <v>8.56615237981772</v>
+        <v>9.27507767767144</v>
       </c>
       <c r="G19" t="n">
         <v>22</v>
@@ -1239,10 +1239,10 @@
         <v>30.5555555555556</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
-        <v>5.08474576271186</v>
+        <v>7.66423357664234</v>
       </c>
       <c r="K19" t="n">
         <v>8</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>2257</v>
+        <v>38812</v>
       </c>
       <c r="F20" t="n">
-        <v>2.24082127042751</v>
+        <v>6.72201958481847</v>
       </c>
       <c r="G20" t="n">
         <v>9</v>
@@ -1277,10 +1277,10 @@
         <v>12.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J20" t="n">
-        <v>3.38983050847458</v>
+        <v>6.2043795620438</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>19033</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.29640829531717</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1315,10 +1315,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.55474452554745</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1755</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.30395610562085</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.364963503649635</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>4338</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.751317143124357</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.45985401459854</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>14493</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.51010589103304</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.82481751824818</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>690</v>
+        <v>15414</v>
       </c>
       <c r="F25" t="n">
-        <v>0.685053910764282</v>
+        <v>2.66961789859816</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>1.69491525423729</v>
+        <v>2.91970802919708</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>7452</v>
+        <v>23346</v>
       </c>
       <c r="F26" t="n">
-        <v>7.39858223625424</v>
+        <v>4.0433955793871</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>5.08474576271186</v>
+        <v>2.91970802919708</v>
       </c>
       <c r="K26" t="n">
         <v>4</v>
